--- a/notebooks/assets/test/RF10_1.xlsx
+++ b/notebooks/assets/test/RF10_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,145 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>grid_0_1_0418_0425_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0418_0425_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0418_0425_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0418_0425_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0418_0425_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>grid_0_1_0903_0910_2021.gpkg</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0903_0910_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0903_0910_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0903_0910_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0903_0910_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0903_0910_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>grid_0_1_1007_1017_2021.gpkg</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_1007_1017_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_1007_1017_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_1007_1017_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_1007_1017_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_1007_1017_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>grid_0_1_0717_0724_2021.gpkg</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0717_0724_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0717_0724_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0717_0724_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0717_0724_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0717_0724_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0324_0331_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0324_0331_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0324_0331_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0324_0331_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0324_0331_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>grid_0_1_0324_0331_2021.gpkg</t>
         </is>
@@ -467,19 +592,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.473</v>
+        <v>1.102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.768</v>
+        <v>1.276</v>
       </c>
       <c r="D2" t="n">
-        <v>0.837</v>
+        <v>1.118</v>
       </c>
       <c r="E2" t="n">
-        <v>0.658</v>
+        <v>1.204</v>
       </c>
       <c r="F2" t="n">
-        <v>0.873</v>
+        <v>1.053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.241</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.398</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.511</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.278</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +689,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.387</v>
+        <v>1.767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.962</v>
+        <v>2.572</v>
       </c>
       <c r="D3" t="n">
-        <v>1.153</v>
+        <v>2.079</v>
       </c>
       <c r="E3" t="n">
-        <v>0.851</v>
+        <v>2.025</v>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>1.786</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.351</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.504</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.244</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.656</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.282</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.297</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.695</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.997</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.561</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3.775</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4.043</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.907</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +786,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.33</v>
+        <v>18.641</v>
       </c>
       <c r="C4" t="n">
-        <v>15.233</v>
+        <v>17.824</v>
       </c>
       <c r="D4" t="n">
-        <v>18.083</v>
+        <v>18.458</v>
       </c>
       <c r="E4" t="n">
-        <v>12.881</v>
+        <v>18.63</v>
       </c>
       <c r="F4" t="n">
-        <v>30.883</v>
+        <v>18.393</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.762</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.191</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.617</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.052</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.351</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14.604</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15.952</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17.263</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19.292</v>
+      </c>
+      <c r="P4" t="n">
+        <v>18.003</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>17.943</v>
+      </c>
+      <c r="R4" t="n">
+        <v>17.518</v>
+      </c>
+      <c r="S4" t="n">
+        <v>17.471</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12.854</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13.014</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12.898</v>
+      </c>
+      <c r="W4" t="n">
+        <v>12.743</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12.904</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13.347</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>30.667</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>30.907</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>30.467</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>31.097</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>30.892</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>29.543</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +883,94 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.406</v>
+        <v>18.61</v>
       </c>
       <c r="C5" t="n">
-        <v>15.375</v>
+        <v>18.339</v>
       </c>
       <c r="D5" t="n">
-        <v>17.942</v>
+        <v>18.376</v>
       </c>
       <c r="E5" t="n">
-        <v>12.753</v>
+        <v>18.571</v>
       </c>
       <c r="F5" t="n">
-        <v>30.75</v>
+        <v>18.085</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.171</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.339</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.706</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.013</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.614</v>
+      </c>
+      <c r="M5" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17.694</v>
+      </c>
+      <c r="O5" t="n">
+        <v>18.791</v>
+      </c>
+      <c r="P5" t="n">
+        <v>18.443</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>18.297</v>
+      </c>
+      <c r="R5" t="n">
+        <v>17.393</v>
+      </c>
+      <c r="S5" t="n">
+        <v>17.208</v>
+      </c>
+      <c r="T5" t="n">
+        <v>12.751</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12.824</v>
+      </c>
+      <c r="V5" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="W5" t="n">
+        <v>12.944</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12.937</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13.087</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>30.801</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>30.197</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>31.547</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>30.357</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>29.581</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +980,94 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.945</v>
+        <v>0.745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.93</v>
+        <v>0.661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.641</v>
       </c>
       <c r="E6" t="n">
-        <v>0.544</v>
+        <v>0.796</v>
       </c>
       <c r="F6" t="n">
-        <v>0.966</v>
+        <v>0.764</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.867</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/assets/test/RF10_1.xlsx
+++ b/notebooks/assets/test/RF10_1.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.042</v>
+        <v>1.262</v>
       </c>
       <c r="C2" t="n">
-        <v>0.96</v>
+        <v>1.141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.869</v>
+        <v>0.791</v>
       </c>
       <c r="E2" t="n">
-        <v>0.61</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1.239</v>
+        <v>1.509</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.661</v>
+        <v>2.507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.636</v>
+        <v>2.335</v>
       </c>
       <c r="D3" t="n">
-        <v>1.742</v>
+        <v>1.137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.665</v>
+        <v>0.833</v>
       </c>
       <c r="F3" t="n">
-        <v>2.782</v>
+        <v>4.191</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.754</v>
+        <v>0.659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.852</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.793</v>
+        <v>0.789</v>
       </c>
       <c r="E4" t="n">
-        <v>0.66</v>
+        <v>0.645</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9</v>
+        <v>0.856</v>
       </c>
     </row>
   </sheetData>
